--- a/data/E países latinoamérica trimestral (1980 a 2021) FMI.xlsx
+++ b/data/E países latinoamérica trimestral (1980 a 2021) FMI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4F11A7-A8C0-DA4C-94BA-73CA74EF0C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516E983-EE4D-D24D-843F-5E795FCEAB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26040" yWindow="-400" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9055" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9057" uniqueCount="2022">
   <si>
     <t>Q1 1980</t>
   </si>
@@ -7918,6 +7918,12 @@
   <si>
     <t>Country: Uruguay
 Time: Q3 2021</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Indicador E</t>
   </si>
 </sst>
 </file>
@@ -7990,10 +7996,10 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8335,6 +8341,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:169" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2021</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13419,7 +13431,7 @@
       </c>
     </row>
     <row r="11" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -13928,7 +13940,7 @@
       </c>
     </row>
     <row r="12" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -14437,7 +14449,7 @@
       </c>
     </row>
     <row r="13" spans="1:169" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -14946,7 +14958,7 @@
       </c>
     </row>
     <row r="14" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -15455,7 +15467,7 @@
       </c>
     </row>
     <row r="15" spans="1:169" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -25126,7 +25138,7 @@
       </c>
     </row>
     <row r="34" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -25635,7 +25647,7 @@
       </c>
     </row>
     <row r="35" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -26144,7 +26156,7 @@
       </c>
     </row>
     <row r="36" spans="1:169" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -26653,7 +26665,7 @@
       </c>
     </row>
     <row r="37" spans="1:169" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -27162,7 +27174,7 @@
       </c>
     </row>
     <row r="38" spans="1:169" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -34808,7 +34820,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:169" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+      <c r="A1" s="8"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>

--- a/data/E países latinoamérica trimestral (1980 a 2021) FMI.xlsx
+++ b/data/E países latinoamérica trimestral (1980 a 2021) FMI.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516E983-EE4D-D24D-843F-5E795FCEAB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6B045-FEB2-E940-A8D2-0DD5B2909B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="-400" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International Financial Statis" sheetId="1" r:id="rId1"/>
     <sheet name="Tooltip" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8319,10 +8328,10 @@
   <dimension ref="A1:FM52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="FG46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="FI49" sqref="FI49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
